--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158A9DEA-F1BE-439D-B834-27AA269F7282}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54F145F-9849-45BF-A6DC-320E0CA2F2A4}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54F145F-9849-45BF-A6DC-320E0CA2F2A4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1343B1DA-D5C0-4272-B71A-2C7DB11449F1}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>
@@ -396,13 +396,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -410,50 +410,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>3.3488205426709321E-2</v>
+        <v>5.0232967956058687E-2</v>
       </c>
       <c r="B2">
-        <v>1.6573876655055337</v>
+        <v>1.4860880493934758</v>
       </c>
       <c r="C2">
-        <v>1.6200488214049564</v>
+        <v>1.4300784251427108</v>
       </c>
       <c r="D2">
-        <v>1.514164889895498</v>
+        <v>1.2712479244454129</v>
       </c>
       <c r="E2">
-        <v>-9.9999999999964517E-6</v>
+        <v>-1.0000000000004976E-5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>9.0769099612936457E-2</v>
+        <v>0.13615592072401358</v>
       </c>
       <c r="B3">
-        <v>1.7882324643576384</v>
+        <v>1.6823611648084293</v>
       </c>
       <c r="C3">
-        <v>1.700919232560256</v>
+        <v>1.5513878077363521</v>
       </c>
       <c r="D3">
-        <v>1.5388309715970907</v>
+        <v>1.3082481160780843</v>
       </c>
       <c r="E3">
-        <v>-9.9999999999969363E-6</v>
+        <v>-9.9999999999981526E-6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.16516032460820018</v>
+        <v>0.24774535458654837</v>
       </c>
       <c r="B4">
-        <v>1.910973836650006</v>
+        <v>1.86647929190935</v>
       </c>
       <c r="C4">
-        <v>1.7733501337212731</v>
+        <v>1.6600384839000062</v>
       </c>
       <c r="D4">
-        <v>1.5723238294518531</v>
+        <v>1.3584889219028982</v>
       </c>
       <c r="E4">
         <v>-9.9999999999961231E-6</v>
@@ -461,801 +461,801 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.22635885034944389</v>
+        <v>0.33954837962445611</v>
       </c>
       <c r="B5">
-        <v>2.0120817236021336</v>
+        <v>2.0181482613658881</v>
       </c>
       <c r="C5">
-        <v>1.832075349157313</v>
+        <v>1.7481303365945939</v>
       </c>
       <c r="D5">
-        <v>1.6119020399253783</v>
+        <v>1.4178582624545673</v>
       </c>
       <c r="E5">
-        <v>0.14648745553971695</v>
+        <v>0.21972549121774831</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.24992084702376424</v>
+        <v>0.37489509211216554</v>
       </c>
       <c r="B6">
-        <v>2.074014150281954</v>
+        <v>2.1110528095156904</v>
       </c>
       <c r="C6">
-        <v>1.8737954754274537</v>
+        <v>1.810713896064194</v>
       </c>
       <c r="D6">
-        <v>1.6534921298574701</v>
+        <v>1.4802457716900683</v>
       </c>
       <c r="E6">
-        <v>0.35642061867104624</v>
+        <v>0.53464176442118072</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.23978613835948714</v>
+        <v>0.35969419459574459</v>
       </c>
       <c r="B7">
-        <v>2.0965754683781084</v>
+        <v>2.1448981994844081</v>
       </c>
       <c r="C7">
-        <v>1.8990045530898327</v>
+        <v>1.8485298505934096</v>
       </c>
       <c r="D7">
-        <v>1.6933696303243275</v>
+        <v>1.540064490191559</v>
       </c>
       <c r="E7">
-        <v>0.48164652485099568</v>
+        <v>0.72249314916556939</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.21030707432105028</v>
+        <v>0.31547471801959809</v>
       </c>
       <c r="B8">
-        <v>2.0915092251004235</v>
+        <v>2.1372998490718156</v>
       </c>
       <c r="C8">
-        <v>1.9121026729121597</v>
+        <v>1.8681783761752564</v>
       </c>
       <c r="D8">
-        <v>1.7292021938541762</v>
+        <v>1.5938156724907819</v>
       </c>
       <c r="E8">
-        <v>0.52915482804008873</v>
+        <v>0.79376250322361697</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.17550581645697874</v>
+        <v>0.26327088883191951</v>
       </c>
       <c r="B9">
-        <v>2.0733268137091172</v>
+        <v>2.1100256656772012</v>
       </c>
       <c r="C9">
-        <v>1.918549084468727</v>
+        <v>1.8778486451314116</v>
       </c>
       <c r="D9">
-        <v>1.760173409641121</v>
+        <v>1.6402745718775598</v>
       </c>
       <c r="E9">
-        <v>0.52645840883100115</v>
+        <v>0.78972003917163069</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.14445152085888557</v>
+        <v>0.21668730322318777</v>
       </c>
       <c r="B10">
-        <v>2.0533338527440046</v>
+        <v>2.0800349909865199</v>
       </c>
       <c r="C10">
-        <v>1.9227184010319971</v>
+        <v>1.8841029198827006</v>
       </c>
       <c r="D10">
-        <v>1.7865578495203804</v>
+        <v>1.6798530095973663</v>
       </c>
       <c r="E10">
-        <v>0.50250334972984656</v>
+        <v>0.7537867837257558</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.12079314247462751</v>
+        <v>0.18119790590537352</v>
       </c>
       <c r="B11">
-        <v>2.0376571570136939</v>
+        <v>2.0565187109776675</v>
       </c>
       <c r="C11">
-        <v>1.9271154910336268</v>
+        <v>1.8906987606110179</v>
       </c>
       <c r="D11">
-        <v>1.8091567871947787</v>
+        <v>1.7137529227215933</v>
       </c>
       <c r="E11">
-        <v>0.47772419226448648</v>
+        <v>0.71661634988494438</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.10434109574713313</v>
+        <v>0.15651849202618223</v>
       </c>
       <c r="B12">
-        <v>2.0279533862063412</v>
+        <v>2.0419621423831495</v>
       </c>
       <c r="C12">
-        <v>1.9325789896771899</v>
+        <v>1.8988942557461408</v>
       </c>
       <c r="D12">
-        <v>1.8288484811058192</v>
+        <v>1.7432917524911336</v>
       </c>
       <c r="E12">
-        <v>0.46193950463197841</v>
+        <v>0.69293776830641951</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>9.3085048777225204E-2</v>
+        <v>0.13963351566524013</v>
       </c>
       <c r="B13">
-        <v>2.023195555525088</v>
+        <v>2.0348248669860265</v>
       </c>
       <c r="C13">
-        <v>1.9389110926285533</v>
+        <v>1.9083927339788556</v>
       </c>
       <c r="D13">
-        <v>1.8463397178035534</v>
+        <v>1.7695297327956738</v>
       </c>
       <c r="E13">
-        <v>0.45675491150406788</v>
+        <v>0.68515997910814563</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>8.4755400293326275E-2</v>
+        <v>0.12713843392930771</v>
       </c>
       <c r="B14">
-        <v>2.0213980027328438</v>
+        <v>2.0321283023204728</v>
       </c>
       <c r="C14">
-        <v>1.9455106934577913</v>
+        <v>1.9182925131517621</v>
       </c>
       <c r="D14">
-        <v>1.8620949634471895</v>
+        <v>1.7931636040529058</v>
       </c>
       <c r="E14">
-        <v>0.45936221004051464</v>
+        <v>0.68907069780361707</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>7.765697948701196E-2</v>
+        <v>0.11649034860870687</v>
       </c>
       <c r="B15">
-        <v>2.0207517225958886</v>
+        <v>2.0311588089722292</v>
       </c>
       <c r="C15">
-        <v>1.9518034150084116</v>
+        <v>1.9277319863107136</v>
       </c>
       <c r="D15">
-        <v>1.8763740717705726</v>
+        <v>1.8145831724956447</v>
       </c>
       <c r="E15">
-        <v>0.46577836472872614</v>
+        <v>0.69869515533087745</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>7.0883866381532878E-2</v>
+        <v>0.10633028113800491</v>
       </c>
       <c r="B16">
-        <v>2.0201093588094317</v>
+        <v>2.0301952427507999</v>
       </c>
       <c r="C16">
-        <v>1.9574354104869285</v>
+        <v>1.9361803478724735</v>
       </c>
       <c r="D16">
-        <v>1.88931024760407</v>
+        <v>1.8339882588186089</v>
       </c>
       <c r="E16">
-        <v>0.47276784843905889</v>
+        <v>0.70917980396704561</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>6.4168919136775512E-2</v>
+        <v>9.6257470846779172E-2</v>
       </c>
       <c r="B17">
-        <v>2.0190023817166916</v>
+        <v>2.0285347448974242</v>
       </c>
       <c r="C17">
-        <v>1.9622918255522432</v>
+        <v>1.943465296423371</v>
       </c>
       <c r="D17">
-        <v>1.9009825396742059</v>
+        <v>1.8514974425657023</v>
       </c>
       <c r="E17">
-        <v>0.47851381104397489</v>
+        <v>0.71779917610710997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>5.7607755483568272E-2</v>
+        <v>8.641533432093404E-2</v>
       </c>
       <c r="B18">
-        <v>2.017429602387669</v>
+        <v>2.0261755097548235</v>
       </c>
       <c r="C18">
-        <v>1.9664259214045989</v>
+        <v>1.949666718797797</v>
       </c>
       <c r="D18">
-        <v>1.9114627753184177</v>
+        <v>1.8672184686127231</v>
       </c>
       <c r="E18">
-        <v>0.48247536774889072</v>
+        <v>0.72374184609358205</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>5.1412300290928678E-2</v>
+        <v>7.7121768530052814E-2</v>
       </c>
       <c r="B19">
-        <v>2.0156053618207128</v>
+        <v>2.023439053327615</v>
       </c>
       <c r="C19">
-        <v>1.9699688709923135</v>
+        <v>1.9549813791549262</v>
       </c>
       <c r="D19">
-        <v>1.9208356081036242</v>
+        <v>1.8812783212370634</v>
       </c>
       <c r="E19">
-        <v>0.48490373264472236</v>
+        <v>0.7273846139071285</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>4.5758230688951816E-2</v>
+        <v>6.8640303604220257E-2</v>
       </c>
       <c r="B20">
-        <v>2.0137702701887856</v>
+        <v>2.0206863062379039</v>
       </c>
       <c r="C20">
-        <v>1.9730598506052397</v>
+        <v>1.9596180506185361</v>
       </c>
       <c r="D20">
-        <v>1.9291997276912887</v>
+        <v>1.893825039887139</v>
       </c>
       <c r="E20">
-        <v>0.48635325968919124</v>
+        <v>0.72955903351779716</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>4.0726473588489118E-2</v>
+        <v>6.1092340614564838E-2</v>
       </c>
       <c r="B21">
-        <v>2.0120931817988272</v>
+        <v>2.0181705650975434</v>
       </c>
       <c r="C21">
-        <v>1.9758086939689155</v>
+        <v>1.9637414923014205</v>
       </c>
       <c r="D21">
-        <v>1.9366601385609672</v>
+        <v>1.9050161371560754</v>
       </c>
       <c r="E21">
-        <v>0.48734911982212709</v>
+        <v>0.73105289835919829</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>3.6308281639759334E-2</v>
+        <v>5.4464762812490124E-2</v>
       </c>
       <c r="B22">
-        <v>2.0106484309397934</v>
+        <v>2.0160033411156308</v>
       </c>
       <c r="C22">
-        <v>1.9782863374358695</v>
+        <v>1.9674581151009236</v>
       </c>
       <c r="D22">
-        <v>1.9433190848750617</v>
+        <v>1.9150049855124354</v>
       </c>
       <c r="E22">
-        <v>0.48823772933549975</v>
+        <v>0.73238586490048141</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>3.243872265461261E-2</v>
+        <v>4.8660170690647389E-2</v>
       </c>
       <c r="B23">
-        <v>2.0094362307319713</v>
+        <v>2.0141849576929975</v>
       </c>
       <c r="C23">
-        <v>1.980531749078104</v>
+        <v>1.970826375015069</v>
       </c>
       <c r="D23">
-        <v>1.9492696280021835</v>
+        <v>1.923931183008686</v>
       </c>
       <c r="E23">
-        <v>0.48917292536110113</v>
+        <v>0.73378870841345378</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>2.9032618640441179E-2</v>
+        <v>4.3550792874639678E-2</v>
       </c>
       <c r="B24">
-        <v>2.0084169535265208</v>
+        <v>2.0126559726964794</v>
       </c>
       <c r="C24">
-        <v>1.9825645397884815</v>
+        <v>1.973875690377376</v>
       </c>
       <c r="D24">
-        <v>1.9545928872993739</v>
+        <v>1.9319164140805873</v>
       </c>
       <c r="E24">
-        <v>0.49017137192825599</v>
+        <v>0.73528643251342418</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>2.6009782320742074E-2</v>
+        <v>3.901634314508759E-2</v>
       </c>
       <c r="B25">
-        <v>2.0075407477544758</v>
+        <v>2.0113416059763769</v>
       </c>
       <c r="C25">
-        <v>1.9843963124071922</v>
+        <v>1.9766234663794959</v>
       </c>
       <c r="D25">
-        <v>1.9593581947403331</v>
+        <v>1.9390646813512085</v>
       </c>
       <c r="E25">
-        <v>0.49118293094921134</v>
+        <v>0.73680382971650926</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>2.3306797004093393E-2</v>
+        <v>3.4961691696327249E-2</v>
       </c>
       <c r="B26">
-        <v>2.0067653126865199</v>
+        <v>2.0101784032919312</v>
       </c>
       <c r="C26">
-        <v>1.986037701538607</v>
+        <v>1.9790856554771294</v>
       </c>
       <c r="D26">
-        <v>1.9636248353554899</v>
+        <v>1.9454649163258735</v>
       </c>
       <c r="E26">
-        <v>0.49214535175199831</v>
+        <v>0.73824752022322859</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>2.0878395202665316E-2</v>
+        <v>3.1318933661582553E-2</v>
       </c>
       <c r="B27">
-        <v>2.0060619734825962</v>
+        <v>2.0091233498557601</v>
       </c>
       <c r="C27">
-        <v>1.9875012674787538</v>
+        <v>1.981281098680161</v>
       </c>
       <c r="D27">
-        <v>1.9674441777869294</v>
+        <v>1.9511941753435633</v>
       </c>
       <c r="E27">
-        <v>0.49301357682048474</v>
+        <v>0.73954991374020984</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>1.8693334352696257E-2</v>
+        <v>2.8041202681653634E-2</v>
       </c>
       <c r="B28">
-        <v>2.0054144164445882</v>
+        <v>2.0081519734912492</v>
       </c>
       <c r="C28">
-        <v>1.9888011959946121</v>
+        <v>1.983231075340254</v>
       </c>
       <c r="D28">
-        <v>1.9708614992661189</v>
+        <v>1.9563203771768549</v>
       </c>
       <c r="E28">
-        <v>0.49376758108430108</v>
+        <v>0.7406809699856729</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>1.6728821100437885E-2</v>
+        <v>2.5094307024640428E-2</v>
       </c>
       <c r="B29">
-        <v>2.0048135627889287</v>
+        <v>2.0072506551031344</v>
       </c>
       <c r="C29">
-        <v>1.9899520832282225</v>
+        <v>1.9849574804844021</v>
       </c>
       <c r="D29">
-        <v>1.9739171849831716</v>
+        <v>1.96090410219022</v>
       </c>
       <c r="E29">
-        <v>0.49440694041077454</v>
+        <v>0.74164005167593838</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>1.4966056864819664E-2</v>
+        <v>2.2450047579245548E-2</v>
       </c>
       <c r="B30">
-        <v>2.0042532072741222</v>
+        <v>2.0064100863254462</v>
       </c>
       <c r="C30">
-        <v>1.990966599818639</v>
+        <v>1.9864793208507949</v>
       </c>
       <c r="D30">
-        <v>1.9766474269893572</v>
+        <v>1.9649996407623904</v>
       </c>
       <c r="E30">
-        <v>0.49494139575592377</v>
+        <v>0.74244177032312797</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>1.3387482472846978E-2</v>
+        <v>2.0082084534033404E-2</v>
       </c>
       <c r="B31">
-        <v>2.0037250077073105</v>
+        <v>2.0056177533874293</v>
       </c>
       <c r="C31">
-        <v>1.9918550883554424</v>
+        <v>1.9878121110131841</v>
       </c>
       <c r="D31">
-        <v>1.979084409253973</v>
+        <v>1.968655270898644</v>
       </c>
       <c r="E31">
-        <v>0.49538095114814523</v>
+        <v>0.74310113250119292</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1.1976002735080865E-2</v>
+        <v>1.7964774108568473E-2</v>
       </c>
       <c r="B32">
-        <v>2.0032183617393464</v>
+        <v>2.0048577522061723</v>
       </c>
       <c r="C32">
-        <v>1.9926224974891862</v>
+        <v>1.9889632743296846</v>
       </c>
       <c r="D32">
-        <v>1.9812564649776565</v>
+        <v>1.9719134942163214</v>
       </c>
       <c r="E32">
-        <v>0.4957310657626196</v>
+        <v>0.7436263274707845</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1.0714670833336293E-2</v>
+        <v>1.6072695068933909E-2</v>
       </c>
       <c r="B33">
-        <v>2.0027146576746513</v>
+        <v>2.0041021641944976</v>
       </c>
       <c r="C33">
-        <v>1.9932710837948331</v>
+        <v>1.9899361958772046</v>
       </c>
       <c r="D33">
-        <v>1.9831877023203861</v>
+        <v>1.9748104745143573</v>
       </c>
       <c r="E33">
-        <v>0.49598652823022837</v>
+        <v>0.74400953810209036</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>9.587864139436162E-3</v>
+        <v>1.438241251262249E-2</v>
       </c>
       <c r="B34">
-        <v>2.0021936421755511</v>
+        <v>2.003320608171677</v>
       </c>
       <c r="C34">
-        <v>1.9937923911141822</v>
+        <v>1.9907181909738854</v>
       </c>
       <c r="D34">
-        <v>1.9848982369073511</v>
+        <v>1.9773763865435163</v>
       </c>
       <c r="E34">
-        <v>0.49613447047209647</v>
+        <v>0.74423146170250554</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>8.5804369511346366E-3</v>
+        <v>1.2871206927983917E-2</v>
       </c>
       <c r="B35">
-        <v>2.0016166230662598</v>
+        <v>2.0024550435599924</v>
       </c>
       <c r="C35">
-        <v>1.9941781077946739</v>
+        <v>1.9912967916874118</v>
       </c>
       <c r="D35">
-        <v>1.986402891661653</v>
+        <v>1.9796334656749992</v>
       </c>
       <c r="E35">
-        <v>0.49614317803160873</v>
+        <v>0.74424452480557735</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>7.6804077896918625E-3</v>
+        <v>1.1521105315361876E-2</v>
       </c>
       <c r="B36">
-        <v>2.0009500018463493</v>
+        <v>2.0014550705763408</v>
       </c>
       <c r="C36">
-        <v>1.9943935497089904</v>
+        <v>1.9916199697784081</v>
       </c>
       <c r="D36">
-        <v>1.9877121315782755</v>
+        <v>1.98159741011612</v>
       </c>
       <c r="E36">
-        <v>0.49597589324635877</v>
+        <v>0.7439935887625897</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>6.874470260309273E-3</v>
+        <v>1.0312147221051145E-2</v>
       </c>
       <c r="B37">
-        <v>2.0001090101169865</v>
+        <v>2.0001935315109174</v>
       </c>
       <c r="C37">
-        <v>1.9944171309182339</v>
+        <v>1.9916553450668706</v>
       </c>
       <c r="D37">
-        <v>1.9888278506467596</v>
+        <v>1.9832710610416517</v>
       </c>
       <c r="E37">
-        <v>0.4955529783278661</v>
+        <v>0.74335919211849955</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>6.156298317122339E-3</v>
+        <v>9.2348431404446259E-3</v>
       </c>
       <c r="B38">
-        <v>1.9990430290566601</v>
+        <v>1.998594495066222</v>
       </c>
       <c r="C38">
-        <v>1.9941518930418045</v>
+        <v>1.9912574741861784</v>
       </c>
       <c r="D38">
-        <v>1.9897472167036507</v>
+        <v>1.9846501701038632</v>
       </c>
       <c r="E38">
-        <v>0.49480178344934</v>
+        <v>0.74223235575952973</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>5.5107146399101031E-3</v>
+        <v>8.2664261365662083E-3</v>
       </c>
       <c r="B39">
-        <v>1.9975478229745172</v>
+        <v>1.9963515954333371</v>
       </c>
       <c r="C39">
-        <v>1.9935676940040663</v>
+        <v>1.9903811422307083</v>
       </c>
       <c r="D39">
-        <v>1.9904492712680286</v>
+        <v>1.9857032983835157</v>
       </c>
       <c r="E39">
-        <v>0.49353153600036698</v>
+        <v>0.74032690931120937</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>4.9426817262087216E-3</v>
+        <v>7.4143402158843921E-3</v>
       </c>
       <c r="B40">
-        <v>1.9955721997707918</v>
+        <v>1.9933880413703489</v>
       </c>
       <c r="C40">
-        <v>1.9924035996646419</v>
+        <v>1.9886349323570018</v>
       </c>
       <c r="D40">
-        <v>1.9909103348332773</v>
+        <v>1.9863949252523307</v>
       </c>
       <c r="E40">
-        <v>0.49161748716734954</v>
+        <v>0.73745572205808507</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>4.4229891754760204E-3</v>
+        <v>6.6347679957855831E-3</v>
       </c>
       <c r="B41">
-        <v>1.9925850351111016</v>
+        <v>1.9889071145083963</v>
       </c>
       <c r="C41">
-        <v>1.990673149104369</v>
+        <v>1.9860391540074187</v>
       </c>
       <c r="D41">
-        <v>1.9910610578582815</v>
+        <v>1.9866210222853766</v>
       </c>
       <c r="E41">
-        <v>0.4885866608024535</v>
+        <v>0.73290930140859134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>3.9891318981817546E-3</v>
+        <v>5.9839540645311847E-3</v>
       </c>
       <c r="B42">
-        <v>1.9886619183397949</v>
+        <v>1.983022203373304</v>
       </c>
       <c r="C42">
-        <v>1.9876533032520141</v>
+        <v>1.9815092052260121</v>
       </c>
       <c r="D42">
-        <v>1.9908451353016177</v>
+        <v>1.9862971285832902</v>
       </c>
       <c r="E42">
-        <v>0.48428390890429407</v>
+        <v>0.72645491604814627</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>3.5576797523223132E-3</v>
+        <v>5.3367481840028083E-3</v>
       </c>
       <c r="B43">
-        <v>1.9823303226981601</v>
+        <v>1.973524429505503</v>
       </c>
       <c r="C43">
-        <v>1.9836618023077848</v>
+        <v>1.9755217153616864</v>
       </c>
       <c r="D43">
-        <v>1.9900788021673066</v>
+        <v>1.9851475856662892</v>
       </c>
       <c r="E43">
-        <v>0.47747977505070704</v>
+        <v>0.71624830760965275</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>3.2737186644082117E-3</v>
+        <v>4.9107879226500933E-3</v>
       </c>
       <c r="B44">
-        <v>1.974384509972543</v>
+        <v>1.9616052331688709</v>
       </c>
       <c r="C44">
-        <v>1.9765983005094541</v>
+        <v>1.9649260398213579</v>
       </c>
       <c r="D44">
-        <v>1.9886663158697779</v>
+        <v>1.9830287739415215</v>
       </c>
       <c r="E44">
-        <v>0.46823739427087629</v>
+        <v>0.70238418239388523</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>2.8613260560769026E-3</v>
+        <v>4.2921728496187212E-3</v>
       </c>
       <c r="B45">
-        <v>1.9605032205647124</v>
+        <v>1.9407824658083943</v>
       </c>
       <c r="C45">
-        <v>1.9681577209913692</v>
+        <v>1.9522646649064941</v>
       </c>
       <c r="D45">
-        <v>1.9861316372923219</v>
+        <v>1.9792266062095401</v>
       </c>
       <c r="E45">
-        <v>0.45318211860679208</v>
+        <v>0.67980036607167338</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>2.8331367179195003E-3</v>
+        <v>4.2498858708718262E-3</v>
       </c>
       <c r="B46">
-        <v>1.9445694995580771</v>
+        <v>1.9168809277971521</v>
       </c>
       <c r="C46">
-        <v>1.9519444635968419</v>
+        <v>1.9279438068554464</v>
       </c>
       <c r="D46">
-        <v>1.9823910448962399</v>
+        <v>1.9736154951524254</v>
       </c>
       <c r="E46">
-        <v>0.43382535613530637</v>
+        <v>0.65076406130443221</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>2.241428689335496E-3</v>
+        <v>3.3622872044484758E-3</v>
       </c>
       <c r="B47">
-        <v>1.9132795095940298</v>
+        <v>1.869944065287759</v>
       </c>
       <c r="C47">
-        <v>1.9351115139434512</v>
+        <v>1.9026933729113937</v>
       </c>
       <c r="D47">
-        <v>1.976171006719041</v>
+        <v>1.9642850664646052</v>
       </c>
       <c r="E47">
-        <v>0.40037856935678418</v>
+        <v>0.60059187480437159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>2.8649030629038594E-3</v>
+        <v>4.2975351258856404E-3</v>
       </c>
       <c r="B48">
-        <v>1.8824959689008873</v>
+        <v>1.8237669065864215</v>
       </c>
       <c r="C48">
-        <v>1.8974025574855045</v>
+        <v>1.8461276765741315</v>
       </c>
       <c r="D48">
-        <v>1.9677402533154071</v>
+        <v>1.9516384320755686</v>
       </c>
       <c r="E48">
-        <v>0.36084714607413787</v>
+        <v>0.54129236810023307</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>1.4223327513893924E-3</v>
+        <v>2.1335922501058229E-3</v>
       </c>
       <c r="B49">
-        <v>1.8097010795526909</v>
+        <v>1.7145702052066294</v>
       </c>
       <c r="C49">
-        <v>1.8663405437848</v>
+        <v>1.7995327922851021</v>
       </c>
       <c r="D49">
-        <v>1.9535167276767629</v>
+        <v>1.9303022916573642</v>
       </c>
       <c r="E49">
-        <v>0.28540303313969961</v>
+        <v>0.42812167272156215</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>4.0652740308750419E-3</v>
+        <v>6.0981618272612746E-3</v>
       </c>
       <c r="B50">
-        <v>1.7549837902459493</v>
+        <v>1.6324909867764219</v>
       </c>
       <c r="C50">
-        <v>1.7758417722501996</v>
+        <v>1.6637792065286661</v>
       </c>
       <c r="D50">
-        <v>1.9356487633079895</v>
+        <v>1.9034992742180794</v>
       </c>
       <c r="E50">
-        <v>0.20769857954848889</v>
+        <v>0.31156032956527091</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-5.7933119613447649E-4</v>
+        <v>-8.6902522480519816E-4</v>
       </c>
       <c r="B51">
-        <v>1.5787205495064089</v>
+        <v>1.3680855517747998</v>
       </c>
       <c r="C51">
-        <v>1.7271013074309058</v>
+        <v>1.5906655833900007</v>
       </c>
       <c r="D51">
-        <v>1.9035252240658473</v>
+        <v>1.8553120391981843</v>
       </c>
       <c r="E51">
-        <v>3.3161788153726883E-2</v>
+        <v>4.9744671819406241E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E52">
         <v>0</v>

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1343B1DA-D5C0-4272-B71A-2C7DB11449F1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8872D1DE-960C-481F-81B0-612F5F3AD693}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8872D1DE-960C-481F-81B0-612F5F3AD693}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA72667-C681-459D-A7C1-92877757F8BD}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>5.0232967956058687E-2</v>
+        <v>5.0232967956058652E-2</v>
       </c>
       <c r="B2">
-        <v>1.4860880493934758</v>
+        <v>1.4860880493934756</v>
       </c>
       <c r="C2">
         <v>1.4300784251427108</v>
@@ -422,199 +422,199 @@
         <v>1.2712479244454129</v>
       </c>
       <c r="E2">
-        <v>-1.0000000000004976E-5</v>
+        <v>-9.9999999999975258E-6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.13615592072401358</v>
+        <v>0.13615592072401347</v>
       </c>
       <c r="B3">
-        <v>1.6823611648084293</v>
+        <v>1.6823611648084291</v>
       </c>
       <c r="C3">
-        <v>1.5513878077363521</v>
+        <v>1.5513878077363519</v>
       </c>
       <c r="D3">
         <v>1.3082481160780843</v>
       </c>
       <c r="E3">
-        <v>-9.9999999999981526E-6</v>
+        <v>-9.9999999999848E-6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.24774535458654837</v>
+        <v>0.2477453545865482</v>
       </c>
       <c r="B4">
-        <v>1.86647929190935</v>
+        <v>1.8664792919093496</v>
       </c>
       <c r="C4">
-        <v>1.6600384839000062</v>
+        <v>1.660038483900006</v>
       </c>
       <c r="D4">
         <v>1.3584889219028982</v>
       </c>
       <c r="E4">
-        <v>-9.9999999999961231E-6</v>
+        <v>-9.9999999999406119E-6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.33954837962445611</v>
+        <v>0.339548379624456</v>
       </c>
       <c r="B5">
-        <v>2.0181482613658881</v>
+        <v>2.0181482613658872</v>
       </c>
       <c r="C5">
-        <v>1.7481303365945939</v>
+        <v>1.7481303365945937</v>
       </c>
       <c r="D5">
         <v>1.4178582624545673</v>
       </c>
       <c r="E5">
-        <v>0.21972549121774831</v>
+        <v>0.21972549121774759</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.37489509211216554</v>
+        <v>0.37489509211216548</v>
       </c>
       <c r="B6">
         <v>2.1110528095156904</v>
       </c>
       <c r="C6">
-        <v>1.810713896064194</v>
+        <v>1.8107138960641938</v>
       </c>
       <c r="D6">
         <v>1.4802457716900683</v>
       </c>
       <c r="E6">
-        <v>0.53464176442118072</v>
+        <v>0.53464176442118017</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.35969419459574459</v>
+        <v>0.35969419459574464</v>
       </c>
       <c r="B7">
         <v>2.1448981994844081</v>
       </c>
       <c r="C7">
-        <v>1.8485298505934096</v>
+        <v>1.8485298505934094</v>
       </c>
       <c r="D7">
         <v>1.540064490191559</v>
       </c>
       <c r="E7">
-        <v>0.72249314916556939</v>
+        <v>0.72249314916556917</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.31547471801959809</v>
+        <v>0.3154747180195982</v>
       </c>
       <c r="B8">
         <v>2.1372998490718156</v>
       </c>
       <c r="C8">
-        <v>1.8681783761752564</v>
+        <v>1.8681783761752562</v>
       </c>
       <c r="D8">
         <v>1.5938156724907819</v>
       </c>
       <c r="E8">
-        <v>0.79376250322361697</v>
+        <v>0.79376250322361686</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.26327088883191951</v>
+        <v>0.26327088883191962</v>
       </c>
       <c r="B9">
-        <v>2.1100256656772012</v>
+        <v>2.1100256656772016</v>
       </c>
       <c r="C9">
-        <v>1.8778486451314116</v>
+        <v>1.8778486451314118</v>
       </c>
       <c r="D9">
         <v>1.6402745718775598</v>
       </c>
       <c r="E9">
-        <v>0.78972003917163069</v>
+        <v>0.78972003917163081</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.21668730322318777</v>
+        <v>0.21668730322318788</v>
       </c>
       <c r="B10">
         <v>2.0800349909865199</v>
       </c>
       <c r="C10">
-        <v>1.8841029198827006</v>
+        <v>1.8841029198827008</v>
       </c>
       <c r="D10">
-        <v>1.6798530095973663</v>
+        <v>1.6798530095973661</v>
       </c>
       <c r="E10">
-        <v>0.7537867837257558</v>
+        <v>0.75378678372575592</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.18119790590537352</v>
+        <v>0.1811979059053736</v>
       </c>
       <c r="B11">
         <v>2.0565187109776675</v>
       </c>
       <c r="C11">
-        <v>1.8906987606110179</v>
+        <v>1.8906987606110177</v>
       </c>
       <c r="D11">
         <v>1.7137529227215933</v>
       </c>
       <c r="E11">
-        <v>0.71661634988494438</v>
+        <v>0.71661634988494449</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.15651849202618223</v>
+        <v>0.15651849202618229</v>
       </c>
       <c r="B12">
         <v>2.0419621423831495</v>
       </c>
       <c r="C12">
-        <v>1.8988942557461408</v>
+        <v>1.898894255746141</v>
       </c>
       <c r="D12">
         <v>1.7432917524911336</v>
       </c>
       <c r="E12">
-        <v>0.69293776830641951</v>
+        <v>0.69293776830641962</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.13963351566524013</v>
+        <v>0.13963351566524018</v>
       </c>
       <c r="B13">
         <v>2.0348248669860265</v>
       </c>
       <c r="C13">
-        <v>1.9083927339788556</v>
+        <v>1.9083927339788558</v>
       </c>
       <c r="D13">
         <v>1.7695297327956738</v>
       </c>
       <c r="E13">
-        <v>0.68515997910814563</v>
+        <v>0.68515997910814597</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0.12713843392930771</v>
+        <v>0.12713843392930774</v>
       </c>
       <c r="B14">
         <v>2.0321283023204728</v>
@@ -626,12 +626,12 @@
         <v>1.7931636040529058</v>
       </c>
       <c r="E14">
-        <v>0.68907069780361707</v>
+        <v>0.6890706978036174</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0.11649034860870687</v>
+        <v>0.11649034860870684</v>
       </c>
       <c r="B15">
         <v>2.0311588089722292</v>
@@ -640,21 +640,21 @@
         <v>1.9277319863107136</v>
       </c>
       <c r="D15">
-        <v>1.8145831724956447</v>
+        <v>1.8145831724956449</v>
       </c>
       <c r="E15">
-        <v>0.69869515533087745</v>
+        <v>0.69869515533087767</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0.10633028113800491</v>
+        <v>0.10633028113800487</v>
       </c>
       <c r="B16">
         <v>2.0301952427507999</v>
       </c>
       <c r="C16">
-        <v>1.9361803478724735</v>
+        <v>1.9361803478724737</v>
       </c>
       <c r="D16">
         <v>1.8339882588186089</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>9.6257470846779172E-2</v>
+        <v>9.6257470846779158E-2</v>
       </c>
       <c r="B17">
         <v>2.0285347448974242</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>8.641533432093404E-2</v>
+        <v>8.6415334320934012E-2</v>
       </c>
       <c r="B18">
         <v>2.0261755097548235</v>
@@ -694,12 +694,12 @@
         <v>1.8672184686127231</v>
       </c>
       <c r="E18">
-        <v>0.72374184609358205</v>
+        <v>0.72374184609358228</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>7.7121768530052814E-2</v>
+        <v>7.7121768530052787E-2</v>
       </c>
       <c r="B19">
         <v>2.023439053327615</v>
@@ -708,49 +708,49 @@
         <v>1.9549813791549262</v>
       </c>
       <c r="D19">
-        <v>1.8812783212370634</v>
+        <v>1.8812783212370636</v>
       </c>
       <c r="E19">
-        <v>0.7273846139071285</v>
+        <v>0.72738461390712872</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>6.8640303604220257E-2</v>
+        <v>6.8640303604220229E-2</v>
       </c>
       <c r="B20">
         <v>2.0206863062379039</v>
       </c>
       <c r="C20">
-        <v>1.9596180506185361</v>
+        <v>1.9596180506185363</v>
       </c>
       <c r="D20">
         <v>1.893825039887139</v>
       </c>
       <c r="E20">
-        <v>0.72955903351779716</v>
+        <v>0.72955903351779738</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>6.1092340614564838E-2</v>
+        <v>6.1092340614564783E-2</v>
       </c>
       <c r="B21">
-        <v>2.0181705650975434</v>
+        <v>2.0181705650975439</v>
       </c>
       <c r="C21">
-        <v>1.9637414923014205</v>
+        <v>1.9637414923014207</v>
       </c>
       <c r="D21">
-        <v>1.9050161371560754</v>
+        <v>1.9050161371560757</v>
       </c>
       <c r="E21">
-        <v>0.73105289835919829</v>
+        <v>0.73105289835919851</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>5.4464762812490124E-2</v>
+        <v>5.4464762812490054E-2</v>
       </c>
       <c r="B22">
         <v>2.0160033411156308</v>
@@ -767,194 +767,194 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>4.8660170690647389E-2</v>
+        <v>4.8660170690647313E-2</v>
       </c>
       <c r="B23">
         <v>2.0141849576929975</v>
       </c>
       <c r="C23">
-        <v>1.970826375015069</v>
+        <v>1.9708263750150692</v>
       </c>
       <c r="D23">
         <v>1.923931183008686</v>
       </c>
       <c r="E23">
-        <v>0.73378870841345378</v>
+        <v>0.73378870841345389</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>4.3550792874639678E-2</v>
+        <v>4.3550792874639595E-2</v>
       </c>
       <c r="B24">
         <v>2.0126559726964794</v>
       </c>
       <c r="C24">
-        <v>1.973875690377376</v>
+        <v>1.9738756903773762</v>
       </c>
       <c r="D24">
-        <v>1.9319164140805873</v>
+        <v>1.9319164140805876</v>
       </c>
       <c r="E24">
-        <v>0.73528643251342418</v>
+        <v>0.7352864325134244</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>3.901634314508759E-2</v>
+        <v>3.9016343145087479E-2</v>
       </c>
       <c r="B25">
-        <v>2.0113416059763769</v>
+        <v>2.0113416059763773</v>
       </c>
       <c r="C25">
         <v>1.9766234663794959</v>
       </c>
       <c r="D25">
-        <v>1.9390646813512085</v>
+        <v>1.9390646813512087</v>
       </c>
       <c r="E25">
-        <v>0.73680382971650926</v>
+        <v>0.73680382971650971</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>3.4961691696327249E-2</v>
+        <v>3.4961691696327124E-2</v>
       </c>
       <c r="B26">
         <v>2.0101784032919312</v>
       </c>
       <c r="C26">
-        <v>1.9790856554771294</v>
+        <v>1.9790856554771299</v>
       </c>
       <c r="D26">
-        <v>1.9454649163258735</v>
+        <v>1.9454649163258737</v>
       </c>
       <c r="E26">
-        <v>0.73824752022322859</v>
+        <v>0.73824752022322893</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>3.1318933661582553E-2</v>
+        <v>3.13189336615824E-2</v>
       </c>
       <c r="B27">
         <v>2.0091233498557601</v>
       </c>
       <c r="C27">
-        <v>1.981281098680161</v>
+        <v>1.9812810986801614</v>
       </c>
       <c r="D27">
-        <v>1.9511941753435633</v>
+        <v>1.9511941753435635</v>
       </c>
       <c r="E27">
-        <v>0.73954991374020984</v>
+        <v>0.73954991374021029</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>2.8041202681653634E-2</v>
+        <v>2.8041202681653506E-2</v>
       </c>
       <c r="B28">
         <v>2.0081519734912492</v>
       </c>
       <c r="C28">
-        <v>1.983231075340254</v>
+        <v>1.9832310753402544</v>
       </c>
       <c r="D28">
-        <v>1.9563203771768549</v>
+        <v>1.9563203771768554</v>
       </c>
       <c r="E28">
-        <v>0.7406809699856729</v>
+        <v>0.74068096998567312</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>2.5094307024640428E-2</v>
+        <v>2.5094307024640314E-2</v>
       </c>
       <c r="B29">
         <v>2.0072506551031344</v>
       </c>
       <c r="C29">
-        <v>1.9849574804844021</v>
+        <v>1.9849574804844026</v>
       </c>
       <c r="D29">
-        <v>1.96090410219022</v>
+        <v>1.9609041021902205</v>
       </c>
       <c r="E29">
-        <v>0.74164005167593838</v>
+        <v>0.74164005167593883</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>2.2450047579245548E-2</v>
+        <v>2.2450047579245378E-2</v>
       </c>
       <c r="B30">
         <v>2.0064100863254462</v>
       </c>
       <c r="C30">
-        <v>1.9864793208507949</v>
+        <v>1.9864793208507951</v>
       </c>
       <c r="D30">
-        <v>1.9649996407623904</v>
+        <v>1.9649996407623909</v>
       </c>
       <c r="E30">
-        <v>0.74244177032312797</v>
+        <v>0.74244177032312864</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>2.0082084534033404E-2</v>
+        <v>2.0082084534033227E-2</v>
       </c>
       <c r="B31">
-        <v>2.0056177533874293</v>
+        <v>2.0056177533874298</v>
       </c>
       <c r="C31">
-        <v>1.9878121110131841</v>
+        <v>1.9878121110131843</v>
       </c>
       <c r="D31">
-        <v>1.968655270898644</v>
+        <v>1.9686552708986444</v>
       </c>
       <c r="E31">
-        <v>0.74310113250119292</v>
+        <v>0.74310113250119325</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1.7964774108568473E-2</v>
+        <v>1.7964774108568286E-2</v>
       </c>
       <c r="B32">
-        <v>2.0048577522061723</v>
+        <v>2.0048577522061728</v>
       </c>
       <c r="C32">
-        <v>1.9889632743296846</v>
+        <v>1.988963274329685</v>
       </c>
       <c r="D32">
-        <v>1.9719134942163214</v>
+        <v>1.9719134942163219</v>
       </c>
       <c r="E32">
-        <v>0.7436263274707845</v>
+        <v>0.74362632747078483</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1.6072695068933909E-2</v>
+        <v>1.6072695068933707E-2</v>
       </c>
       <c r="B33">
         <v>2.0041021641944976</v>
       </c>
       <c r="C33">
-        <v>1.9899361958772046</v>
+        <v>1.9899361958772048</v>
       </c>
       <c r="D33">
-        <v>1.9748104745143573</v>
+        <v>1.9748104745143578</v>
       </c>
       <c r="E33">
-        <v>0.74400953810209036</v>
+        <v>0.74400953810209058</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>1.438241251262249E-2</v>
+        <v>1.4382412512622277E-2</v>
       </c>
       <c r="B34">
         <v>2.003320608171677</v>
@@ -966,12 +966,12 @@
         <v>1.9773763865435163</v>
       </c>
       <c r="E34">
-        <v>0.74423146170250554</v>
+        <v>0.74423146170250565</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>1.2871206927983917E-2</v>
+        <v>1.2871206927983716E-2</v>
       </c>
       <c r="B35">
         <v>2.0024550435599924</v>
@@ -988,10 +988,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>1.1521105315361876E-2</v>
+        <v>1.1521105315361694E-2</v>
       </c>
       <c r="B36">
-        <v>2.0014550705763408</v>
+        <v>2.0014550705763412</v>
       </c>
       <c r="C36">
         <v>1.9916199697784081</v>
@@ -1000,21 +1000,21 @@
         <v>1.98159741011612</v>
       </c>
       <c r="E36">
-        <v>0.7439935887625897</v>
+        <v>0.74399358876258981</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>1.0312147221051145E-2</v>
+        <v>1.0312147221050979E-2</v>
       </c>
       <c r="B37">
         <v>2.0001935315109174</v>
       </c>
       <c r="C37">
-        <v>1.9916553450668706</v>
+        <v>1.9916553450668708</v>
       </c>
       <c r="D37">
-        <v>1.9832710610416517</v>
+        <v>1.983271061041652</v>
       </c>
       <c r="E37">
         <v>0.74335919211849955</v>
@@ -1022,24 +1022,24 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>9.2348431404446259E-3</v>
+        <v>9.2348431404444785E-3</v>
       </c>
       <c r="B38">
         <v>1.998594495066222</v>
       </c>
       <c r="C38">
-        <v>1.9912574741861784</v>
+        <v>1.9912574741861786</v>
       </c>
       <c r="D38">
         <v>1.9846501701038632</v>
       </c>
       <c r="E38">
-        <v>0.74223235575952973</v>
+        <v>0.74223235575952962</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>8.2664261365662083E-3</v>
+        <v>8.2664261365660886E-3</v>
       </c>
       <c r="B39">
         <v>1.9963515954333371</v>
@@ -1048,7 +1048,7 @@
         <v>1.9903811422307083</v>
       </c>
       <c r="D39">
-        <v>1.9857032983835157</v>
+        <v>1.9857032983835159</v>
       </c>
       <c r="E39">
         <v>0.74032690931120937</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>7.4143402158843921E-3</v>
+        <v>7.4143402158842993E-3</v>
       </c>
       <c r="B40">
         <v>1.9933880413703489</v>
       </c>
       <c r="C40">
-        <v>1.9886349323570018</v>
+        <v>1.9886349323570021</v>
       </c>
       <c r="D40">
-        <v>1.9863949252523307</v>
+        <v>1.986394925252331</v>
       </c>
       <c r="E40">
         <v>0.73745572205808507</v>
@@ -1073,24 +1073,24 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>6.6347679957855831E-3</v>
+        <v>6.6347679957855206E-3</v>
       </c>
       <c r="B41">
         <v>1.9889071145083963</v>
       </c>
       <c r="C41">
-        <v>1.9860391540074187</v>
+        <v>1.9860391540074189</v>
       </c>
       <c r="D41">
         <v>1.9866210222853766</v>
       </c>
       <c r="E41">
-        <v>0.73290930140859134</v>
+        <v>0.73290930140859123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>5.9839540645311847E-3</v>
+        <v>5.9839540645310902E-3</v>
       </c>
       <c r="B42">
         <v>1.983022203373304</v>
@@ -1102,12 +1102,12 @@
         <v>1.9862971285832902</v>
       </c>
       <c r="E42">
-        <v>0.72645491604814627</v>
+        <v>0.72645491604814649</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>5.3367481840028083E-3</v>
+        <v>5.3367481840026878E-3</v>
       </c>
       <c r="B43">
         <v>1.973524429505503</v>
@@ -1119,46 +1119,46 @@
         <v>1.9851475856662892</v>
       </c>
       <c r="E43">
-        <v>0.71624830760965275</v>
+        <v>0.71624830760965286</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>4.9107879226500933E-3</v>
+        <v>4.9107879226499606E-3</v>
       </c>
       <c r="B44">
         <v>1.9616052331688709</v>
       </c>
       <c r="C44">
-        <v>1.9649260398213579</v>
+        <v>1.9649260398213582</v>
       </c>
       <c r="D44">
         <v>1.9830287739415215</v>
       </c>
       <c r="E44">
-        <v>0.70238418239388523</v>
+        <v>0.70238418239388534</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>4.2921728496187212E-3</v>
+        <v>4.292172849618618E-3</v>
       </c>
       <c r="B45">
-        <v>1.9407824658083943</v>
+        <v>1.9407824658083945</v>
       </c>
       <c r="C45">
-        <v>1.9522646649064941</v>
+        <v>1.9522646649064943</v>
       </c>
       <c r="D45">
         <v>1.9792266062095401</v>
       </c>
       <c r="E45">
-        <v>0.67980036607167338</v>
+        <v>0.67980036607167327</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>4.2498858708718262E-3</v>
+        <v>4.2498858708718019E-3</v>
       </c>
       <c r="B46">
         <v>1.9168809277971521</v>
@@ -1170,18 +1170,18 @@
         <v>1.9736154951524254</v>
       </c>
       <c r="E46">
-        <v>0.65076406130443221</v>
+        <v>0.65076406130443198</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>3.3622872044484758E-3</v>
+        <v>3.3622872044484996E-3</v>
       </c>
       <c r="B47">
         <v>1.869944065287759</v>
       </c>
       <c r="C47">
-        <v>1.9026933729113937</v>
+        <v>1.902693372911394</v>
       </c>
       <c r="D47">
         <v>1.9642850664646052</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>4.2975351258856404E-3</v>
+        <v>4.2975351258856759E-3</v>
       </c>
       <c r="B48">
-        <v>1.8237669065864215</v>
+        <v>1.8237669065864217</v>
       </c>
       <c r="C48">
         <v>1.8461276765741315</v>
@@ -1204,15 +1204,15 @@
         <v>1.9516384320755686</v>
       </c>
       <c r="E48">
-        <v>0.54129236810023307</v>
+        <v>0.54129236810023318</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>2.1335922501058229E-3</v>
+        <v>2.1335922501058528E-3</v>
       </c>
       <c r="B49">
-        <v>1.7145702052066294</v>
+        <v>1.7145702052066296</v>
       </c>
       <c r="C49">
         <v>1.7995327922851021</v>
@@ -1221,15 +1221,15 @@
         <v>1.9303022916573642</v>
       </c>
       <c r="E49">
-        <v>0.42812167272156215</v>
+        <v>0.42812167272156226</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>6.0981618272612746E-3</v>
+        <v>6.0981618272612859E-3</v>
       </c>
       <c r="B50">
-        <v>1.6324909867764219</v>
+        <v>1.6324909867764221</v>
       </c>
       <c r="C50">
         <v>1.6637792065286661</v>
@@ -1238,12 +1238,12 @@
         <v>1.9034992742180794</v>
       </c>
       <c r="E50">
-        <v>0.31156032956527091</v>
+        <v>0.31156032956527108</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-8.6902522480519816E-4</v>
+        <v>-8.6902522480520824E-4</v>
       </c>
       <c r="B51">
         <v>1.3680855517747998</v>
@@ -1255,7 +1255,7 @@
         <v>1.8553120391981843</v>
       </c>
       <c r="E51">
-        <v>4.9744671819406241E-2</v>
+        <v>4.9744671819406339E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA72667-C681-459D-A7C1-92877757F8BD}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CDEE4F9-4444-4363-9890-4AC3FAFBF5AC}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/1_Optimal/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CDEE4F9-4444-4363-9890-4AC3FAFBF5AC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2B476D86-8C4D-415F-AD42-A240CAF59BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4B37A1-6826-43FC-AFF1-23CC99EA6048}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{7F0489CC-8796-4B79-AFDF-92C2B4C5276A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2798933-E146-471A-80ED-AD38DD0C9C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A46DE-A593-4370-A0C8-E7D972101E64}">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/result/benchmark.xlsx
+++ b/result/benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/1_Optimal/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2B476D86-8C4D-415F-AD42-A240CAF59BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4B37A1-6826-43FC-AFF1-23CC99EA6048}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5C8BF745-1854-42BD-A365-12EF294103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CDEE4F9-4444-4363-9890-4AC3FAFBF5AC}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{7F0489CC-8796-4B79-AFDF-92C2B4C5276A}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{8BD81374-2A6E-4016-8A51-1383DCC63BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A46DE-A593-4370-A0C8-E7D972101E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2798933-E146-471A-80ED-AD38DD0C9C64}">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
